--- a/3.Pandas/Rooms.xlsx
+++ b/3.Pandas/Rooms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Programming\Mini Project\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\ML Python\3.Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05709233-5515-4B8E-BA8D-ECFDE37D33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE3014-FBF4-47F3-92C7-6CC451BD52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C08513C-EC29-4DFD-83A0-00D921F69628}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2549C3-A89E-4E90-96EC-A8F855F7D0C2}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
